--- a/2. Power BI - OS Collection Performance Analysis/Design Thinking and Metadata.xlsx
+++ b/2. Power BI - OS Collection Performance Analysis/Design Thinking and Metadata.xlsx
@@ -5,27 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Power BI\K8 Mini project 2 -  Collection Analysis\K8 Mini project 2 -  Collection Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\DA_Apply\2. Power BI - OS Collection Performance Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB273DE-7358-4721-B4E8-2276B9929DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D22B43-8622-4176-8615-07431BA6764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đề bài" sheetId="3" r:id="rId1"/>
     <sheet name="Data Dictionary" sheetId="5" r:id="rId2"/>
     <sheet name="Designthinking" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Designthinking!$A$1:$I$10</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
-  <si>
-    <t>Đề bài:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Field</t>
   </si>
@@ -82,24 +82,6 @@
   </si>
   <si>
     <t>Phân tích Hiệu quả thu hồi hồi nợ để Head of Collection của Ngân hàng X thấy được hiệu quả thu hồi nợ của các đối tác, từ đó có quyết định phân bổ danh mục nợ trong quý tới và chiến lược hợp tác phù hợp</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Giới thiệu chung về dataset: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gồm 1 bảng chứa thông tin thu hồi nợ của đối tác theo từng tháng trong năm 2020 và 2021</t>
-    </r>
-  </si>
-  <si>
-    <t>Dataset: OS Collection Performance</t>
   </si>
   <si>
     <t>Emphasize</t>
@@ -134,14 +116,6 @@
 **Collection rate</t>
   </si>
   <si>
-    <t>- Who is Stakeholders?
-- What they want to know?
-- What they want to see?
-- What u want them to do after presenting?
-** What is the paint-point?
-** OMTM?**</t>
-  </si>
-  <si>
     <t>- Data type
 - Constraint (type, range, accuracy, completeness, consistency,…)
 - Outlier
@@ -212,12 +186,38 @@
    -&gt; Some collections are pre-collected
     </t>
   </si>
+  <si>
+    <t>DESIGN THINKING</t>
+  </si>
+  <si>
+    <t>- Who is Stakeholders?
+- What they want to know?
+- What they want to see?
+- What u want them to do after presenting?
+** What is the paint-point?
+** OMTM?**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đề bài: </t>
+  </si>
+  <si>
+    <t>gồm 1 bảng chứa thông tin thu hồi nợ của đối tác theo từng tháng trong năm 2020 và 2021</t>
+  </si>
+  <si>
+    <t>OS Collection Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giới thiệu chung: </t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -248,70 +248,101 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Serif"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +385,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -493,59 +530,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,13 +632,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -596,6 +656,55 @@
         <a:xfrm>
           <a:off x="2200275" y="3857625"/>
           <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AAB5E0-1159-4B30-BB2D-FFE3571620CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="5079066"/>
+          <a:ext cx="0" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -818,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650CEA59-FDA2-4854-8B90-EE54ED868778}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A5:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -826,26 +935,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>19</v>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -854,272 +950,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632B4390-06EB-4241-9360-F77ADEC78F32}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="34.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" s="18" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="8" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B8" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B9" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="10" spans="1:2" s="18" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B11" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="14" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="15" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B15" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="1.45" right="0.7" top="1.25" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034F29D5-CF26-4C7F-A502-D225B4C4A62C}">
-  <dimension ref="A1:I10"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="4" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" customWidth="1"/>
     <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="324" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="246.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="H6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="306" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="198.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="14">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="76" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>